--- a/BackTest/2020-01-23 BackTest XSR.xlsx
+++ b/BackTest/2020-01-23 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1029938.731966611</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1030138.731966611</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1030138.731966611</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>813810.1013666105</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>811084.0916666104</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>956536.3910666105</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1219300.71646661</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1126811.52296661</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-933191.6089333894</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1027213.798333389</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1035928.071833389</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-788892.2326333895</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-557689.3769333896</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-558883.6560333896</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-281917.2101333896</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-385366.8850333896</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-385216.8850333896</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-508463.1602333896</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-338593.6261333896</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-819735.3225333896</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1043694.99943339</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1900981.88783339</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1900628.35803339</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1723820.87543339</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2280315.52183339</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2085249.74293339</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2293636.44753339</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2034715.75713339</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2214372.83303339</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2062759.91833339</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-2180630.75283339</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-2323196.280633389</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-2514301.525233389</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2688039.91603339</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-2552424.560633389</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-2552424.560633389</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-2289582.867833389</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-2657189.532133389</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2688598.851133389</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-2583903.558733389</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2816750.947733389</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-2635241.869733389</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-2462656.021544761</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-2605028.214344761</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2781404.789044761</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2697269.182944761</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-2345838.289944761</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-2448426.038144761</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-2228515.937744761</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-2467269.477444761</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-2591799.351744761</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-2379788.222844761</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-2134714.687744761</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-2390857.715244761</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-2629999.859544761</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2438640.974544761</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2282443.755644761</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-2281345.383344761</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-2089151.578544761</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2328935.809244761</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2094233.908544761</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2238035.880044761</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2302442.627633389</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2092166.521333389</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-2331430.302233389</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-2300228.703033389</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1851889.185833389</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1943844.484933389</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-2166900.155333389</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1993450.981933389</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-2161341.024733389</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1972688.126433389</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1860526.407933389</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1860667.244733389</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-2083049.106833389</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1735163.697433389</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1742163.697433389</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1986024.392633389</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-2143509.805633389</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-2043064.827733389</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-2206954.639633389</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-2206816.697633389</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1962760.206933389</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1860802.143933389</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1860802.143933389</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1061394.931633389</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1404233.153533389</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1505838.532433389</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2144547.890133389</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2339097.605833389</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2064278.373133389</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2397776.877333389</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2289208.319433389</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2289463.330633389</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2070882.340833389</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1174838.07356956</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1437784.53916956</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1210013.23516956</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1416296.35666956</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1510426.199431962</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1308518.274131962</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1076500.871294363</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-917515.6625943634</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1075604.113594363</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1075554.021494363</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1075554.021494363</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1197589.447467389</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1007386.708167389</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1007386.708167389</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1639932.545567389</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1461111.647767389</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1350731.704067389</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1649083.535467389</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1648815.004567389</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1550529.928467389</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1646367.03736739</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1819626.87606739</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1694671.52786739</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2106349.71446739</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2957248.95916739</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2861238.68996739</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2762516.41636739</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2997176.08216739</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2855866.98336739</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2855866.98336739</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-3161236.429807383</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-3403313.616207383</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-3668869.467007383</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-3433604.610807383</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-3182764.205607384</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-3182565.628907383</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-3075752.033707384</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-3309093.257507383</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-3637053.263007384</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-3528549.229507384</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-3856673.939907384</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-4117891.994207384</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-4351878.175007384</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-4084155.989807384</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-4249796.059707385</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-4042083.315107385</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-4041995.006907385</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-3759197.055907385</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-3706819.880307385</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-3853893.625607385</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-3672050.255107385</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-3673162.366307385</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-3481310.848307385</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-3282853.707107385</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-3412772.261507384</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-3244282.568807384</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-3062236.995107384</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-3062236.995107384</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-3259934.927707384</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-3034588.341407384</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-3091491.274507384</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-3267118.473407384</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-3918070.007307384</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-4780007.741507384</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-4580923.294707384</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-4473631.043107384</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-4370375.551807384</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-4606979.495707384</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-4492060.135207384</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-4492060.135207384</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-4322794.738107384</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-4061254.391607384</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-3815430.988607384</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-3607539.687807384</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-3461839.762607384</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-3498482.614407384</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-3876200.740307384</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-3611738.992907384</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-3953173.683007385</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-3757865.642407385</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-3876295.259307384</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-3876295.259307384</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-3879489.837607385</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-2455118.505707384</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1896845.670807384</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1472937.136807384</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1706264.130007384</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1706012.330607384</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-2060830.659807384</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-2069079.547907384</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-2531215.480207384</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-2531115.480207384</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-3493858.698407384</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-2823654.241807384</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-3975688.250507384</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-3434683.482607384</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-3128643.451707384</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-2597615.025307383</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-2597810.438207383</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-3182777.586907383</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-3320996.443207383</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-3432759.952707383</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-2929843.806707383</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-2923968.516407383</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-2682340.842707383</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-2451897.967307383</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-2435082.984407383</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1721676.994507383</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1055473.068607383</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1274648.937407383</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1959949.050907383</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-3015341.991007383</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-3755330.041707383</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-3755232.423707383</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-3134882.261207383</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-2720260.757207383</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-6017324.005807383</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-6385855.261007383</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-7789561.315907383</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-9459622.146007383</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-10023919.87710738</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-9351939.585307384</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-9251939.585307384</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-9342925.359707383</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-8357761.800407384</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-8357761.800407384</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-11918521.46160738</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-11726071.74970738</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-12146119.12460738</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-12126830.34830738</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-12388913.51900738</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-11628156.49130739</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-10317377.43730739</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-11041659.81350739</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-10531107.30690739</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-10531107.30690739</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-18219967.32040738</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -25003,10 +25003,14 @@
         <v>-66722239.14854652</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="J746" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
@@ -25036,11 +25040,19 @@
         <v>-67221121.73864652</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>5.283</v>
+      </c>
+      <c r="J747" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25069,11 +25081,19 @@
         <v>-67168749.70864652</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>5.259</v>
+      </c>
+      <c r="J748" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25102,11 +25122,19 @@
         <v>-66430185.68764652</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="J749" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25135,11 +25163,19 @@
         <v>-66430185.68764652</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>5.279</v>
+      </c>
+      <c r="J750" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25168,11 +25204,19 @@
         <v>-66465155.62384652</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>5.279</v>
+      </c>
+      <c r="J751" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25201,11 +25245,19 @@
         <v>-65816428.59864652</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="J752" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25234,11 +25286,19 @@
         <v>-65800791.23574653</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>5.265</v>
+      </c>
+      <c r="J753" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25267,11 +25327,19 @@
         <v>-65556025.36912731</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J754" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25300,11 +25368,19 @@
         <v>-65048854.82202731</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>5.308</v>
+      </c>
+      <c r="J755" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25333,11 +25409,19 @@
         <v>-65051250.73292731</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="J756" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25366,11 +25450,19 @@
         <v>-67479557.5540273</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>5.308</v>
+      </c>
+      <c r="J757" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25402,8 +25494,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25435,8 +25533,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25468,8 +25572,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25501,8 +25611,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25531,11 +25647,19 @@
         <v>-66043612.50132731</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J762" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25564,11 +25688,19 @@
         <v>-66884904.98632731</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J763" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25597,11 +25729,19 @@
         <v>-66854446.81822731</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>5.246</v>
+      </c>
+      <c r="J764" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25630,11 +25770,19 @@
         <v>-67731500.17072731</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J765" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25663,11 +25811,19 @@
         <v>-67082979.76072732</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>5.248</v>
+      </c>
+      <c r="J766" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25696,11 +25852,19 @@
         <v>-67081694.76072732</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>5.253</v>
+      </c>
+      <c r="J767" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25729,11 +25893,19 @@
         <v>-67387171.28862731</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>5.288</v>
+      </c>
+      <c r="J768" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25762,11 +25934,19 @@
         <v>-67302465.4563273</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>5.267</v>
+      </c>
+      <c r="J769" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25795,11 +25975,19 @@
         <v>-67860746.31312731</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>5.288</v>
+      </c>
+      <c r="J770" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25828,11 +26016,19 @@
         <v>-67915335.24732731</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J771" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25861,11 +26057,19 @@
         <v>-68446694.15062732</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>5.251</v>
+      </c>
+      <c r="J772" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25894,11 +26098,19 @@
         <v>-67976034.22542731</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>5.242</v>
+      </c>
+      <c r="J773" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25927,11 +26139,19 @@
         <v>-67976034.22542731</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>5.277</v>
+      </c>
+      <c r="J774" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25960,11 +26180,19 @@
         <v>-68086102.38702731</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>5.277</v>
+      </c>
+      <c r="J775" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25993,11 +26221,19 @@
         <v>-66530972.01782731</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J776" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26026,11 +26262,19 @@
         <v>-65615432.07712731</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>5.271</v>
+      </c>
+      <c r="J777" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26059,11 +26303,19 @@
         <v>-66468454.02372731</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>5.277</v>
+      </c>
+      <c r="J778" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26092,11 +26344,19 @@
         <v>-66468969.02372731</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>5.271</v>
+      </c>
+      <c r="J779" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26125,11 +26385,19 @@
         <v>-66220543.58396038</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>5.249</v>
+      </c>
+      <c r="J780" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26158,15 +26426,17 @@
         <v>-67121981.69129346</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I781" t="n">
         <v>5.272</v>
       </c>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L781" t="n">
@@ -26197,12 +26467,14 @@
         <v>-66587209.34369346</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I782" t="n">
         <v>5.248</v>
       </c>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26236,12 +26508,14 @@
         <v>-67130405.77229346</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I783" t="n">
         <v>5.25</v>
       </c>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26275,12 +26549,14 @@
         <v>-66703218.43329346</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I784" t="n">
         <v>5.243</v>
       </c>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26314,12 +26590,14 @@
         <v>-66952134.53519346</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I785" t="n">
         <v>5.272</v>
       </c>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26353,10 +26631,14 @@
         <v>-66525470.99099346</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>5.246</v>
+      </c>
+      <c r="J786" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26390,10 +26672,14 @@
         <v>-66524942.99099346</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>5.267</v>
+      </c>
+      <c r="J787" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26427,10 +26713,14 @@
         <v>-67128639.72769345</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>5.276</v>
+      </c>
+      <c r="J788" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26464,10 +26754,14 @@
         <v>-67092579.64399345</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>5.253</v>
+      </c>
+      <c r="J789" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26501,10 +26795,14 @@
         <v>-67092484.64399345</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>5.276</v>
+      </c>
+      <c r="J790" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26538,10 +26836,14 @@
         <v>-67788423.14029345</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J791" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26575,10 +26877,14 @@
         <v>-67788328.14029345</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>5.247</v>
+      </c>
+      <c r="J792" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26612,10 +26918,14 @@
         <v>-68523761.16819344</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>5.277</v>
+      </c>
+      <c r="J793" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26649,10 +26959,14 @@
         <v>-68521713.37399344</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>5.271</v>
+      </c>
+      <c r="J794" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26686,10 +27000,14 @@
         <v>-69163525.01049344</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>5.286</v>
+      </c>
+      <c r="J795" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26723,10 +27041,14 @@
         <v>-68989802.38229345</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>5.283</v>
+      </c>
+      <c r="J796" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26760,10 +27082,14 @@
         <v>-68478680.79139344</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>5.286</v>
+      </c>
+      <c r="J797" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26797,10 +27123,14 @@
         <v>-68479682.79139344</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>5.299</v>
+      </c>
+      <c r="J798" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26834,10 +27164,14 @@
         <v>-68479682.79139344</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>5.298</v>
+      </c>
+      <c r="J799" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26871,10 +27205,14 @@
         <v>-68850529.97179344</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>5.298</v>
+      </c>
+      <c r="J800" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26908,12 +27246,14 @@
         <v>-68694819.33899345</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I801" t="n">
         <v>5.274</v>
       </c>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26947,10 +27287,14 @@
         <v>-68868415.00889345</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>5.299</v>
+      </c>
+      <c r="J802" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26984,10 +27328,14 @@
         <v>-69171211.50759344</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J803" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27021,10 +27369,14 @@
         <v>-69155898.88209344</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>5.273</v>
+      </c>
+      <c r="J804" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27058,10 +27410,14 @@
         <v>-69693856.08379345</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J805" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27095,10 +27451,14 @@
         <v>-69691367.08379345</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>5.281</v>
+      </c>
+      <c r="J806" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27132,10 +27492,14 @@
         <v>-69751367.08379345</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>5.299</v>
+      </c>
+      <c r="J807" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27169,10 +27533,14 @@
         <v>-69089828.93419345</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="J808" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27209,7 +27577,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27246,7 +27616,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27283,7 +27655,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27320,7 +27694,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27354,10 +27730,14 @@
         <v>-67770433.64049345</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>5.303</v>
+      </c>
+      <c r="J813" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27394,7 +27774,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27428,10 +27810,14 @@
         <v>-67750114.16429345</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="J815" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27468,7 +27854,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27505,7 +27893,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27542,7 +27932,9 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27579,7 +27971,9 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27616,7 +28010,9 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27653,7 +28049,9 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27690,7 +28088,9 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27727,7 +28127,9 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27764,7 +28166,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27801,7 +28205,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27835,10 +28241,14 @@
         <v>-67780641.18089347</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>5.245</v>
+      </c>
+      <c r="J826" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27872,10 +28282,14 @@
         <v>-67780152.18089347</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="J827" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27909,10 +28323,14 @@
         <v>-68232158.77999346</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>5.308</v>
+      </c>
+      <c r="J828" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27946,10 +28364,14 @@
         <v>-68231920.86939345</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>5.291</v>
+      </c>
+      <c r="J829" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27983,10 +28405,14 @@
         <v>-67866505.25309345</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>5.308</v>
+      </c>
+      <c r="J830" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28020,10 +28446,14 @@
         <v>-67861930.56139345</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>5.311</v>
+      </c>
+      <c r="J831" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28057,10 +28487,14 @@
         <v>-67622753.49509345</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>5.324</v>
+      </c>
+      <c r="J832" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28094,10 +28528,14 @@
         <v>-66956404.32489345</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>5.329</v>
+      </c>
+      <c r="J833" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28131,10 +28569,14 @@
         <v>-66878116.82539345</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>5.333</v>
+      </c>
+      <c r="J834" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28168,10 +28610,14 @@
         <v>-67277873.36689346</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>5.352</v>
+      </c>
+      <c r="J835" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28208,7 +28654,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28245,7 +28693,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28282,7 +28732,9 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28319,7 +28771,9 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28356,7 +28810,9 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28393,7 +28849,9 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28430,7 +28888,9 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28467,7 +28927,9 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28504,7 +28966,9 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28538,10 +29002,14 @@
         <v>-70297113.97229345</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>5.252</v>
+      </c>
+      <c r="J845" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28575,10 +29043,14 @@
         <v>-70297413.97229345</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>5.263</v>
+      </c>
+      <c r="J846" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28612,10 +29084,14 @@
         <v>-69746641.63749345</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>5.254</v>
+      </c>
+      <c r="J847" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28649,10 +29125,14 @@
         <v>-72189074.31199345</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>5.329</v>
+      </c>
+      <c r="J848" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28686,10 +29166,14 @@
         <v>-72188066.39689346</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>5.232</v>
+      </c>
+      <c r="J849" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28723,10 +29207,14 @@
         <v>-71267206.22199346</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>5.235</v>
+      </c>
+      <c r="J850" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28760,10 +29248,14 @@
         <v>-71844434.29459347</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>5.282</v>
+      </c>
+      <c r="J851" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28797,10 +29289,14 @@
         <v>-71844371.62909347</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J852" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28834,10 +29330,14 @@
         <v>-72630681.98769347</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>5.257</v>
+      </c>
+      <c r="J853" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28871,10 +29371,14 @@
         <v>-72806635.38102165</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>5.235</v>
+      </c>
+      <c r="J854" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28908,10 +29412,14 @@
         <v>-72445063.24492165</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>5.231</v>
+      </c>
+      <c r="J855" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28945,12 +29453,14 @@
         <v>-72446177.64882165</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I856" t="n">
         <v>5.25</v>
       </c>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28984,12 +29494,14 @@
         <v>-71711760.24522164</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I857" t="n">
         <v>5.233</v>
       </c>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29023,12 +29535,14 @@
         <v>-71728644.42962165</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I858" t="n">
         <v>5.286</v>
       </c>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29062,12 +29576,14 @@
         <v>-71974759.97272165</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I859" t="n">
         <v>5.235</v>
       </c>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29101,12 +29617,14 @@
         <v>-71540710.63292165</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I860" t="n">
         <v>5.234</v>
       </c>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29140,12 +29658,14 @@
         <v>-71093338.84522165</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I861" t="n">
         <v>5.235</v>
       </c>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29179,12 +29699,14 @@
         <v>-71093338.84522165</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I862" t="n">
         <v>5.267</v>
       </c>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29218,10 +29740,14 @@
         <v>-71845797.37132165</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>5.267</v>
+      </c>
+      <c r="J863" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29255,12 +29781,14 @@
         <v>-71324930.07892165</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I864" t="n">
         <v>5.234</v>
       </c>
-      <c r="J864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29294,10 +29822,14 @@
         <v>-71266290.88003559</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>5.244</v>
+      </c>
+      <c r="J865" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29331,12 +29863,14 @@
         <v>-71624817.3880356</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866" t="n">
         <v>5.32</v>
       </c>
-      <c r="J866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29370,10 +29904,14 @@
         <v>-71938116.74413559</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>5.311</v>
+      </c>
+      <c r="J867" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29407,10 +29945,14 @@
         <v>-71190254.94714068</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>5.299</v>
+      </c>
+      <c r="J868" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29444,10 +29986,14 @@
         <v>-71190588.92694068</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>5.305</v>
+      </c>
+      <c r="J869" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29481,10 +30027,14 @@
         <v>-71471965.10494068</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>5.289</v>
+      </c>
+      <c r="J870" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29518,10 +30068,14 @@
         <v>-71193045.94754069</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>5.268</v>
+      </c>
+      <c r="J871" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29555,10 +30109,14 @@
         <v>-70982289.24174069</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>5.279</v>
+      </c>
+      <c r="J872" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29592,10 +30150,14 @@
         <v>-70982289.24174069</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J873" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29629,10 +30191,14 @@
         <v>-70982289.24174069</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J874" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29666,10 +30232,14 @@
         <v>-70982011.89824069</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J875" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29703,10 +30273,14 @@
         <v>-70982011.89824069</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>5.294</v>
+      </c>
+      <c r="J876" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29740,10 +30314,14 @@
         <v>-70982011.89824069</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>5.294</v>
+      </c>
+      <c r="J877" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29780,7 +30358,9 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29814,10 +30394,14 @@
         <v>-71673935.24954069</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>5.243</v>
+      </c>
+      <c r="J879" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29851,10 +30435,14 @@
         <v>-71702430.68584068</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>5.276</v>
+      </c>
+      <c r="J880" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29888,10 +30476,14 @@
         <v>-71703493.03994069</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>5.251</v>
+      </c>
+      <c r="J881" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29925,12 +30517,14 @@
         <v>-71703493.03994069</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I882" t="n">
         <v>5.25</v>
       </c>
-      <c r="J882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29964,10 +30558,14 @@
         <v>-72368287.13974069</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J883" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30001,10 +30599,14 @@
         <v>-72375101.96444069</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>5.249</v>
+      </c>
+      <c r="J884" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30038,10 +30640,14 @@
         <v>-71170257.08124068</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>5.247</v>
+      </c>
+      <c r="J885" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30075,10 +30681,14 @@
         <v>-71952105.67614068</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J886" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30112,10 +30722,14 @@
         <v>-71285861.42914069</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>5.241</v>
+      </c>
+      <c r="J887" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30149,12 +30763,14 @@
         <v>-71285487.55614069</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I888" t="n">
         <v>5.253</v>
       </c>
-      <c r="J888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30188,10 +30804,14 @@
         <v>-70566423.62174068</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>5.275</v>
+      </c>
+      <c r="J889" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30225,12 +30845,14 @@
         <v>-70566423.62174068</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I890" t="n">
         <v>5.276</v>
       </c>
-      <c r="J890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30264,12 +30886,14 @@
         <v>-70860161.18114069</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I891" t="n">
         <v>5.276</v>
       </c>
-      <c r="J891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30303,12 +30927,14 @@
         <v>-70790066.4218407</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I892" t="n">
         <v>5.259</v>
       </c>
-      <c r="J892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30342,12 +30968,14 @@
         <v>-70790066.4218407</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I893" t="n">
         <v>5.277</v>
       </c>
-      <c r="J893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30381,10 +31009,14 @@
         <v>-70799601.0653407</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>5.277</v>
+      </c>
+      <c r="J894" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30418,10 +31050,14 @@
         <v>-70167022.89064069</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>5.246</v>
+      </c>
+      <c r="J895" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30455,10 +31091,14 @@
         <v>-70148253.86054069</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>5.264</v>
+      </c>
+      <c r="J896" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30492,10 +31132,14 @@
         <v>-70116981.94184069</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J897" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30529,12 +31173,14 @@
         <v>-70116981.94184069</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I898" t="n">
         <v>5.28</v>
       </c>
-      <c r="J898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30571,7 +31217,9 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30608,7 +31256,9 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30645,7 +31295,9 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30679,10 +31331,14 @@
         <v>-69256213.4750407</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>5.284</v>
+      </c>
+      <c r="J902" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30716,10 +31372,14 @@
         <v>-69256213.4750407</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>5.288</v>
+      </c>
+      <c r="J903" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30753,10 +31413,14 @@
         <v>-69256213.4750407</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>5.288</v>
+      </c>
+      <c r="J904" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30790,10 +31454,14 @@
         <v>-69677988.9448407</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>5.288</v>
+      </c>
+      <c r="J905" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30827,10 +31495,14 @@
         <v>-69691495.9448407</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>5.286</v>
+      </c>
+      <c r="J906" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30864,10 +31536,14 @@
         <v>-70551127.2855407</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>5.284</v>
+      </c>
+      <c r="J907" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30901,10 +31577,14 @@
         <v>-70966583.8629407</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>5.279</v>
+      </c>
+      <c r="J908" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30938,10 +31618,14 @@
         <v>-71694898.5321407</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>5.275</v>
+      </c>
+      <c r="J909" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30975,10 +31659,14 @@
         <v>-71694898.5321407</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>5.264</v>
+      </c>
+      <c r="J910" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31012,10 +31700,14 @@
         <v>-71695148.5321407</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>5.264</v>
+      </c>
+      <c r="J911" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31049,10 +31741,14 @@
         <v>-71280336.45944071</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>5.252</v>
+      </c>
+      <c r="J912" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31086,12 +31782,14 @@
         <v>-71278394.30524071</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I913" t="n">
         <v>5.255</v>
       </c>
-      <c r="J913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31125,12 +31823,14 @@
         <v>-72236218.94474071</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I914" t="n">
         <v>5.277</v>
       </c>
-      <c r="J914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31164,10 +31864,14 @@
         <v>-72537047.41674072</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>5.244</v>
+      </c>
+      <c r="J915" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31201,12 +31905,14 @@
         <v>-72615824.15764071</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I916" t="n">
         <v>5.241</v>
       </c>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31240,12 +31946,14 @@
         <v>-72153839.60104071</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I917" t="n">
         <v>5.238</v>
       </c>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31279,12 +31987,14 @@
         <v>-72152146.0031407</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I918" t="n">
         <v>5.244</v>
       </c>
-      <c r="J918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31318,12 +32028,14 @@
         <v>-71968113.1491407</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I919" t="n">
         <v>5.249</v>
       </c>
-      <c r="J919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31357,12 +32069,14 @@
         <v>-71565090.73304071</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I920" t="n">
         <v>5.251</v>
       </c>
-      <c r="J920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31396,12 +32110,14 @@
         <v>-72255985.46294071</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I921" t="n">
         <v>5.254</v>
       </c>
-      <c r="J921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31435,12 +32151,14 @@
         <v>-72255985.46294071</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I922" t="n">
         <v>5.252</v>
       </c>
-      <c r="J922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31474,12 +32192,14 @@
         <v>-72255985.46294071</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I923" t="n">
         <v>5.252</v>
       </c>
-      <c r="J923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31513,12 +32233,14 @@
         <v>-72255985.46294071</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I924" t="n">
         <v>5.252</v>
       </c>
-      <c r="J924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31552,12 +32274,14 @@
         <v>-72255584.8322407</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I925" t="n">
         <v>5.252</v>
       </c>
-      <c r="J925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31591,12 +32315,14 @@
         <v>-74642898.0988407</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I926" t="n">
         <v>5.254</v>
       </c>
-      <c r="J926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31630,12 +32356,14 @@
         <v>-74642898.0988407</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I927" t="n">
         <v>5.251</v>
       </c>
-      <c r="J927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31669,12 +32397,14 @@
         <v>-76803543.4447407</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I928" t="n">
         <v>5.251</v>
       </c>
-      <c r="J928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31708,12 +32438,14 @@
         <v>-76803543.4447407</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I929" t="n">
         <v>5.234</v>
       </c>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31747,12 +32479,14 @@
         <v>-76101327.0583407</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I930" t="n">
         <v>5.234</v>
       </c>
-      <c r="J930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31786,12 +32520,14 @@
         <v>-76101327.0583407</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I931" t="n">
         <v>5.253</v>
       </c>
-      <c r="J931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31825,12 +32561,14 @@
         <v>-76101442.7187407</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I932" t="n">
         <v>5.253</v>
       </c>
-      <c r="J932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31864,12 +32602,14 @@
         <v>-75366745.3470407</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I933" t="n">
         <v>5.234</v>
       </c>
-      <c r="J933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31903,12 +32643,14 @@
         <v>-75783000.2854407</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I934" t="n">
         <v>5.253</v>
       </c>
-      <c r="J934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31942,12 +32684,14 @@
         <v>-74546436.4715407</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I935" t="n">
         <v>5.248</v>
       </c>
-      <c r="J935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31981,12 +32725,14 @@
         <v>-74412377.12584071</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I936" t="n">
         <v>5.255</v>
       </c>
-      <c r="J936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32020,12 +32766,14 @@
         <v>-74412377.12584071</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I937" t="n">
         <v>5.28</v>
       </c>
-      <c r="J937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32059,12 +32807,14 @@
         <v>-75161825.6669407</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I938" t="n">
         <v>5.28</v>
       </c>
-      <c r="J938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32098,12 +32848,14 @@
         <v>-74886864.43304071</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I939" t="n">
         <v>5.252</v>
       </c>
-      <c r="J939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32137,12 +32889,14 @@
         <v>-74886864.43304071</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I940" t="n">
         <v>5.264</v>
       </c>
-      <c r="J940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32176,12 +32930,14 @@
         <v>-74875420.59944071</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I941" t="n">
         <v>5.264</v>
       </c>
-      <c r="J941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32215,12 +32971,14 @@
         <v>-75234087.75014071</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I942" t="n">
         <v>5.28</v>
       </c>
-      <c r="J942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32254,12 +33012,14 @@
         <v>-75279559.63004071</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I943" t="n">
         <v>5.269</v>
       </c>
-      <c r="J943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32293,10 +33053,14 @@
         <v>-75279464.6175407</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>5.264</v>
+      </c>
+      <c r="J944" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32330,10 +33094,14 @@
         <v>-75789822.0155407</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J945" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32367,10 +33135,14 @@
         <v>-75789822.0155407</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>5.274</v>
+      </c>
+      <c r="J946" t="n">
+        <v>5.262</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32382,6 +33154,6 @@
       <c r="M946" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest XSR.xlsx
+++ b/BackTest/2020-01-23 BackTest XSR.xlsx
@@ -451,7 +451,7 @@
         <v>1029938.731966611</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1030138.731966611</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1030138.731966611</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>813810.1013666105</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>811084.0916666104</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>956536.3910666105</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1219300.71646661</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1126811.52296661</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1610438.45916661</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1611038.45916661</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1467888.91626661</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1706934.18796661</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1510387.83636661</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1387618.44526661</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1184410.46726661</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1024930.18016661</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1185513.14966661</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1086239.57726661</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1002891.985266611</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>848816.9773666105</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>813702.8185666106</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1028971.013066611</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>838226.8482666105</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1024759.281966611</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>824204.3051666105</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1266901.543366611</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1450698.36726661</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1197646.303066611</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>939665.2815666106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>939665.2815666106</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1041958.032966611</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>797097.2206666105</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>797097.2206666105</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>894211.3993666106</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>693737.3240666105</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>590029.6893666105</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>751249.7450666105</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>632720.2831666105</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>439541.9711666105</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>13068.41196661047</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>145839.0071666105</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>368197.5752666105</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>595921.1730666105</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>596006.1730666105</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>596006.1730666105</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-933191.6089333894</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1027213.798333389</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1035928.071833389</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-788892.2326333895</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-557689.3769333896</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-558883.6560333896</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-281917.2101333896</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-385366.8850333896</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-385216.8850333896</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-338383.9513333896</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-338593.6261333896</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-605538.1401333896</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-947823.7175333896</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-947823.7175333896</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-819735.3225333896</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1043694.99943339</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1186354.664533389</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1602276.306133389</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-3604184.28023339</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1900981.88783339</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1723820.87543339</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1857056.33413339</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2030491.43223339</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1843869.91373339</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1962311.99163339</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1962311.99163339</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2142945.83933339</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-2280315.52183339</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2280315.52183339</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2085249.74293339</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2293636.44753339</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2034715.75713339</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2214372.83303339</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2062759.91833339</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-2180630.75283339</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2117585.394333389</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2163925.627933389</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2064923.547433389</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2302442.627633389</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2092166.521333389</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-2331430.302233389</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-2300228.703033389</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2156411.146233389</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1851889.185833389</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1943844.484933389</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-2166900.155333389</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1993450.981933389</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-2161341.024733389</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1972688.126433389</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1860526.407933389</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1860667.244733389</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-2083049.106833389</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1735163.697433389</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1742163.697433389</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1986024.392633389</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-2143509.805633389</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-2043064.827733389</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-2206954.639633389</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-2206816.697633389</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1962760.206933389</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1860802.143933389</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1860802.143933389</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1061394.931633389</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1052191.931633389</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1404233.153533389</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1505838.532433389</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1505838.532433389</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1617876.823433389</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1730929.501633389</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1871694.159933389</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2144547.890133389</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2339097.605833389</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2064278.373133389</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2154278.373133389</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2054447.535033389</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1932664.484333389</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1745737.951133389</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1959226.887933389</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2149763.483533389</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2397776.877333389</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1174838.07356956</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1437784.53916956</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1210013.23516956</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1416296.35666956</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1510426.199431962</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1308518.274131962</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1076500.871294363</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-917515.6625943634</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1075604.113594363</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1075604.113594363</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1075554.021494363</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1075554.021494363</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1075554.021494363</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1206109.531294364</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1158379.037567389</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1197589.447467389</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1007386.708167389</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1007386.708167389</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1639932.545567389</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1461111.647767389</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1649083.535467389</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1648815.004567389</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1550529.928467389</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1646367.03736739</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1819626.87606739</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1694671.52786739</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2106349.71446739</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2957248.95916739</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2997176.08216739</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2855866.98336739</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-3161236.429807383</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-3403313.616207383</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-3141497.056107383</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-3141497.056107383</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-10678267.84700739</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-10898012.15110739</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-22003615.64732186</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-22021526.01412186</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-21617520.71772186</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-21528940.34762187</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-21529241.34762187</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-22402531.35942187</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-21514400.97012187</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-22181063.28492187</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-22179743.57802187</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-22179743.57802187</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-21495145.61622187</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-22977531.35652187</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-22976227.43282187</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-20608264.86157205</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-20388823.94027205</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-20225428.31922187</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-20569501.13647168</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-18883149.8861215</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-18877631.0465215</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-18683121.2924215</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-18683121.2924215</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-18953121.2924215</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-25198341.4424215</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-24652505.1940215</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-24687417.23360369</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-24089357.24610369</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-24089511.57230369</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-24469982.7923037</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-23245153.8562037</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-23245153.8562037</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-23764388.0984037</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-23295373.61460369</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-25622969.3013037</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-27757215.41634011</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-28595439.60834011</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-27966654.12074011</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-28253743.77562715</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-28236622.36292715</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-28011856.88277101</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-28015266.32347101</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-28212993.29007101</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-28550796.50397101</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-28162144.61257101</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-28803958.77797101</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-28803958.77797101</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-28804234.52897101</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-29322018.74487101</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-29659525.425271</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-29554857.564471</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-29488656.83954466</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-29488656.83954466</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-30148966.34304466</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-30119003.31529307</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-29768416.6738636</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-29737956.07846597</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-30282952.81349972</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-29919042.2652395</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-29433019.12724197</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-29433019.12724197</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-29812184.88224196</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-29268721.63044196</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-29268721.63044196</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-29574601.94574196</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-29229583.88384196</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-29730420.26474196</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-29835007.67534196</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-29931297.84714196</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-29931297.84714196</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-30281702.26694196</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-29870917.20804196</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-29597268.98694196</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-29136235.60594196</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-29206235.60594196</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-29206235.60594196</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-28564997.28914196</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-28504696.43144196</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-28504752.63714196</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-29096539.24554196</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-29220767.41191989</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-29233467.00921989</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-29865003.75961989</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-30052488.97171989</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-29305037.39381989</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-36611407.72168874</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-36608640.06588874</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-45134897.72738874</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-46134897.72738874</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -25993,11 +25993,17 @@
         <v>-66530972.01782731</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>5.27</v>
+      </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26030,7 +26036,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26063,7 +26073,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26096,7 +26110,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26129,7 +26147,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26162,7 +26184,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +26221,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +26258,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26257,11 +26291,17 @@
         <v>-66703218.43329346</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>5.243</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26294,7 +26334,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26323,11 +26367,17 @@
         <v>-66525470.99099346</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>5.246</v>
+      </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +26406,17 @@
         <v>-66524942.99099346</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>5.267</v>
+      </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +26445,17 @@
         <v>-67128639.72769345</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>5.276</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +26484,17 @@
         <v>-67092579.64399345</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>5.253</v>
+      </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +26523,17 @@
         <v>-67092484.64399345</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>5.276</v>
+      </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26492,7 +26566,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26521,11 +26599,17 @@
         <v>-67788328.14029345</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>5.247</v>
+      </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26558,7 +26642,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26591,7 +26679,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26624,7 +26716,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26657,7 +26753,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26690,7 +26790,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26723,7 +26827,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26756,7 +26864,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26789,7 +26901,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26822,7 +26938,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26855,7 +26975,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26888,7 +27012,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26921,7 +27049,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26954,7 +27086,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26987,7 +27123,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27020,7 +27160,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27053,7 +27197,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27086,7 +27234,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27119,7 +27271,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27152,7 +27308,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27185,7 +27345,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27218,7 +27382,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +27419,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +27456,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +27493,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +27530,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27383,7 +27567,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +27604,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27449,7 +27641,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27482,7 +27678,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27515,7 +27715,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +27752,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27581,7 +27789,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27614,7 +27826,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27647,7 +27863,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27680,7 +27900,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27713,7 +27937,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27746,7 +27974,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27779,7 +28011,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27812,7 +28048,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27845,7 +28085,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27878,7 +28122,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27911,7 +28159,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27944,7 +28196,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27977,7 +28233,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28010,7 +28270,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28043,7 +28307,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28076,7 +28344,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28109,7 +28381,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28142,7 +28418,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28175,7 +28455,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +28492,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +28529,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +28566,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +28603,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28336,11 +28636,17 @@
         <v>-69746641.63749345</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>5.254</v>
+      </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28369,11 +28675,17 @@
         <v>-72189074.31199345</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>5.329</v>
+      </c>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +28718,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28755,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +28792,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28501,11 +28825,17 @@
         <v>-71844371.62909347</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>5.25</v>
+      </c>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28534,11 +28864,17 @@
         <v>-72630681.98769347</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>5.257</v>
+      </c>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28567,11 +28903,17 @@
         <v>-72806635.38102165</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>5.235</v>
+      </c>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28600,11 +28942,17 @@
         <v>-72445063.24492165</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>5.231</v>
+      </c>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +28981,17 @@
         <v>-72446177.64882165</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>5.25</v>
+      </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28666,11 +29020,17 @@
         <v>-71711760.24522164</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>5.233</v>
+      </c>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28699,11 +29059,17 @@
         <v>-71728644.42962165</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>5.286</v>
+      </c>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28732,11 +29098,17 @@
         <v>-71974759.97272165</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>5.235</v>
+      </c>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28765,11 +29137,17 @@
         <v>-71540710.63292165</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>5.234</v>
+      </c>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28798,11 +29176,17 @@
         <v>-71093338.84522165</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>5.235</v>
+      </c>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28831,11 +29215,17 @@
         <v>-71093338.84522165</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>5.267</v>
+      </c>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28864,11 +29254,17 @@
         <v>-71845797.37132165</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>5.267</v>
+      </c>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +29293,17 @@
         <v>-71324930.07892165</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>5.234</v>
+      </c>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28930,11 +29332,17 @@
         <v>-71266290.88003559</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>5.244</v>
+      </c>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28963,11 +29371,17 @@
         <v>-71624817.3880356</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>5.32</v>
+      </c>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -28996,11 +29410,17 @@
         <v>-71938116.74413559</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>5.311</v>
+      </c>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29029,11 +29449,17 @@
         <v>-71190254.94714068</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>5.299</v>
+      </c>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29062,11 +29488,17 @@
         <v>-71190588.92694068</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>5.305</v>
+      </c>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29095,11 +29527,17 @@
         <v>-71471965.10494068</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>5.289</v>
+      </c>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29128,11 +29566,17 @@
         <v>-71193045.94754069</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>5.268</v>
+      </c>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29161,11 +29605,17 @@
         <v>-70982289.24174069</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>5.279</v>
+      </c>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29194,11 +29644,17 @@
         <v>-70982289.24174069</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>5.29</v>
+      </c>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29227,11 +29683,17 @@
         <v>-70982289.24174069</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>5.29</v>
+      </c>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29260,11 +29722,17 @@
         <v>-70982011.89824069</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>5.29</v>
+      </c>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29293,11 +29761,17 @@
         <v>-70982011.89824069</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>5.294</v>
+      </c>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29330,7 +29804,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29363,7 +29841,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29396,7 +29878,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29429,7 +29915,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29462,7 +29952,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29491,11 +29985,17 @@
         <v>-71703493.03994069</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>5.25</v>
+      </c>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29524,11 +30024,17 @@
         <v>-72368287.13974069</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>5.25</v>
+      </c>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29557,11 +30063,17 @@
         <v>-72375101.96444069</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>5.249</v>
+      </c>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29590,11 +30102,17 @@
         <v>-71170257.08124068</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>5.247</v>
+      </c>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29623,11 +30141,17 @@
         <v>-71952105.67614068</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>5.25</v>
+      </c>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29656,11 +30180,17 @@
         <v>-71285861.42914069</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>5.241</v>
+      </c>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29689,11 +30219,17 @@
         <v>-71285487.55614069</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>5.253</v>
+      </c>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29722,11 +30258,17 @@
         <v>-70566423.62174068</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>5.275</v>
+      </c>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29759,7 +30301,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +30338,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +30375,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29858,7 +30412,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29891,7 +30449,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29920,11 +30482,17 @@
         <v>-70167022.89064069</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>5.246</v>
+      </c>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29953,11 +30521,17 @@
         <v>-70148253.86054069</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>5.264</v>
+      </c>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29986,11 +30560,17 @@
         <v>-70116981.94184069</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>5.278</v>
+      </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30019,11 +30599,17 @@
         <v>-70116981.94184069</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30052,11 +30638,17 @@
         <v>-69643909.1049407</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,7 +30681,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30122,7 +30718,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30155,7 +30755,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30188,7 +30792,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30221,7 +30829,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30250,11 +30862,17 @@
         <v>-69677988.9448407</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>5.288</v>
+      </c>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30283,11 +30901,17 @@
         <v>-69691495.9448407</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>5.286</v>
+      </c>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30316,11 +30940,17 @@
         <v>-70551127.2855407</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>5.284</v>
+      </c>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30349,11 +30979,17 @@
         <v>-70966583.8629407</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>5.279</v>
+      </c>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +31022,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30415,15 +31055,15 @@
         <v>-71694898.5321407</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>5.264</v>
-      </c>
-      <c r="J910" t="n">
-        <v>5.264</v>
-      </c>
-      <c r="K910" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30452,17 +31092,13 @@
         <v>-71695148.5321407</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>5.264</v>
-      </c>
-      <c r="J911" t="n">
-        <v>5.264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L911" t="n">
@@ -30498,12 +31134,10 @@
       <c r="I912" t="n">
         <v>5.252</v>
       </c>
-      <c r="J912" t="n">
-        <v>5.264</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L912" t="n">
@@ -30539,10 +31173,12 @@
       <c r="I913" t="n">
         <v>5.255</v>
       </c>
-      <c r="J913" t="n">
-        <v>5.255</v>
-      </c>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30576,12 +31212,10 @@
       <c r="I914" t="n">
         <v>5.277</v>
       </c>
-      <c r="J914" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L914" t="n">
@@ -30617,9 +31251,7 @@
       <c r="I915" t="n">
         <v>5.244</v>
       </c>
-      <c r="J915" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30658,9 +31290,7 @@
       <c r="I916" t="n">
         <v>5.241</v>
       </c>
-      <c r="J916" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30699,9 +31329,7 @@
       <c r="I917" t="n">
         <v>5.238</v>
       </c>
-      <c r="J917" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30740,9 +31368,7 @@
       <c r="I918" t="n">
         <v>5.244</v>
       </c>
-      <c r="J918" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30781,9 +31407,7 @@
       <c r="I919" t="n">
         <v>5.249</v>
       </c>
-      <c r="J919" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30822,9 +31446,7 @@
       <c r="I920" t="n">
         <v>5.251</v>
       </c>
-      <c r="J920" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30863,9 +31485,7 @@
       <c r="I921" t="n">
         <v>5.254</v>
       </c>
-      <c r="J921" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30904,9 +31524,7 @@
       <c r="I922" t="n">
         <v>5.252</v>
       </c>
-      <c r="J922" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30945,9 +31563,7 @@
       <c r="I923" t="n">
         <v>5.252</v>
       </c>
-      <c r="J923" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30986,9 +31602,7 @@
       <c r="I924" t="n">
         <v>5.252</v>
       </c>
-      <c r="J924" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31027,9 +31641,7 @@
       <c r="I925" t="n">
         <v>5.252</v>
       </c>
-      <c r="J925" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31068,9 +31680,7 @@
       <c r="I926" t="n">
         <v>5.254</v>
       </c>
-      <c r="J926" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31109,9 +31719,7 @@
       <c r="I927" t="n">
         <v>5.251</v>
       </c>
-      <c r="J927" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31150,9 +31758,7 @@
       <c r="I928" t="n">
         <v>5.251</v>
       </c>
-      <c r="J928" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31191,9 +31797,7 @@
       <c r="I929" t="n">
         <v>5.234</v>
       </c>
-      <c r="J929" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31232,9 +31836,7 @@
       <c r="I930" t="n">
         <v>5.234</v>
       </c>
-      <c r="J930" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31273,9 +31875,7 @@
       <c r="I931" t="n">
         <v>5.253</v>
       </c>
-      <c r="J931" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31314,9 +31914,7 @@
       <c r="I932" t="n">
         <v>5.253</v>
       </c>
-      <c r="J932" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31355,9 +31953,7 @@
       <c r="I933" t="n">
         <v>5.234</v>
       </c>
-      <c r="J933" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31396,9 +31992,7 @@
       <c r="I934" t="n">
         <v>5.253</v>
       </c>
-      <c r="J934" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31437,9 +32031,7 @@
       <c r="I935" t="n">
         <v>5.248</v>
       </c>
-      <c r="J935" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31478,9 +32070,7 @@
       <c r="I936" t="n">
         <v>5.255</v>
       </c>
-      <c r="J936" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31519,9 +32109,7 @@
       <c r="I937" t="n">
         <v>5.28</v>
       </c>
-      <c r="J937" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31560,9 +32148,7 @@
       <c r="I938" t="n">
         <v>5.28</v>
       </c>
-      <c r="J938" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31601,9 +32187,7 @@
       <c r="I939" t="n">
         <v>5.252</v>
       </c>
-      <c r="J939" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31642,9 +32226,7 @@
       <c r="I940" t="n">
         <v>5.264</v>
       </c>
-      <c r="J940" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31683,9 +32265,7 @@
       <c r="I941" t="n">
         <v>5.264</v>
       </c>
-      <c r="J941" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31724,9 +32304,7 @@
       <c r="I942" t="n">
         <v>5.28</v>
       </c>
-      <c r="J942" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31765,9 +32343,7 @@
       <c r="I943" t="n">
         <v>5.269</v>
       </c>
-      <c r="J943" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31806,9 +32382,7 @@
       <c r="I944" t="n">
         <v>5.264</v>
       </c>
-      <c r="J944" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31847,9 +32421,7 @@
       <c r="I945" t="n">
         <v>5.28</v>
       </c>
-      <c r="J945" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31888,9 +32460,7 @@
       <c r="I946" t="n">
         <v>5.274</v>
       </c>
-      <c r="J946" t="n">
-        <v>5.255</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
